--- a/biology/Médecine/Bossu/Bossu.xlsx
+++ b/biology/Médecine/Bossu/Bossu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On nomme populairement un(e) bossu(e) une personne atteinte d'une cyphose, ou cypho-scoliose très grave, avec gibbosité. Les diagnostics précoces, le traitement de la tuberculose, la rééducation et les opérations ont permis la quasi-disparition de ce genre d'affection dans les pays développés.
 </t>
@@ -513,15 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Histoire
-Ésope[1],
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ésope,
 Pépin le Bossu,
 Conan Ier de Bretagne[réf. nécessaire],
 Jeanne de France[réf. nécessaire],
-Louise de France[2]
-Arts, littérature
-L'écrivaine Paule Régnier était bossue, après avoir été atteinte à dix-huit mois d'une tuberculose osseuse[3].
-La fée Carabosse, bossue « à trente-six carats », c'est-à-dire vraiment très bossue[4].
+Louise de France</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bossu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bossu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques personnages bossus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arts, littérature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'écrivaine Paule Régnier était bossue, après avoir été atteinte à dix-huit mois d'une tuberculose osseuse.
+La fée Carabosse, bossue « à trente-six carats », c'est-à-dire vraiment très bossue.
 Francis Chérasse, dit « le Bombé », personnage du film La Soupe aux choux, interprété par Jean Carmet.
 Polichinelle, dans la Commedia dell'arte.
 Quasimodo, dans le roman Notre-Dame de Paris, de Victor Hugo ;
@@ -542,65 +593,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bossu</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bossu</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Expressions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rire comme un bossu,
 malin comme un bossu,
 « Un gêné, c'est un bossu » : dans certaines parties de la Belgique romane, signifie qu'il ne faut pas avoir honte pour quelque chose qui n'en vaut pas la peine, que seulement quelque chose de très grave comme une bosse est vraiment gênant.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bossu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bossu</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Superstitions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Toucher la bosse d'un bossu est réputé donner chance.</t>
         </is>
       </c>
     </row>
@@ -625,10 +648,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Superstitions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toucher la bosse d'un bossu est réputé donner chance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bossu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bossu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Toponymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bossus-lès-Rumigny, commune des Ardennes
 Le Corcovado (« bossu » en portugais) est l'un des nombreux reliefs de la ville de Rio de Janeiro. Il est célèbre pour accueillir en son sommet la statue du Christ Rédempteur, l'un des principaux symboles de la ville et du pays.</t>
